--- a/IntelliJ_shortcut.xlsx
+++ b/IntelliJ_shortcut.xlsx
@@ -1,14 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="10080" yWindow="4620" windowWidth="27500" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$3:$E$31</definedName>
+  </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -19,23 +22,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="92">
-  <si>
-    <t>#</t>
-    <phoneticPr fontId="1"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="125">
   <si>
     <t>ショートカット</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>IntelliJ項目名</t>
-    <rPh sb="8" eb="10">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>メイ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -448,31 +437,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Cmd + N</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Ctrl + Shift + Cmd + N</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>シンボル名の検索（メソッド、変数名など）</t>
-    <rPh sb="4" eb="5">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ヘンスウ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Enter symbole name</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -505,17 +470,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>優先度</t>
-    <rPh sb="0" eb="3">
-      <t>ユウセンド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Ctrl + Shift + R</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>置換</t>
     <rPh sb="0" eb="2">
       <t>チカン</t>
@@ -524,6 +478,264 @@
   </si>
   <si>
     <t>Replace in Path</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>分類</t>
+    <rPh sb="0" eb="2">
+      <t>ブンルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検索</t>
+  </si>
+  <si>
+    <t>Coding</t>
+  </si>
+  <si>
+    <t>実行</t>
+  </si>
+  <si>
+    <t>■IntelliJ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■Vim</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移動</t>
+  </si>
+  <si>
+    <t>$</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Enter</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>次の行の先頭へ</t>
+    <rPh sb="0" eb="1">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>セントウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>w</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>行頭</t>
+    <rPh sb="0" eb="2">
+      <t>ギョウトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>行末</t>
+    <rPh sb="0" eb="2">
+      <t>ギョウマツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>次の単語</t>
+    <rPh sb="0" eb="1">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タンゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>前の単語</t>
+    <rPh sb="0" eb="1">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タンゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[xx]G</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>xx行へ</t>
+    <rPh sb="2" eb="3">
+      <t>ギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>zz</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カーソル位置を中央へ</t>
+    <rPh sb="4" eb="6">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>チュウオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>v</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選択を開始</t>
+    <rPh sb="0" eb="2">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>行全体を選択</t>
+    <rPh sb="0" eb="1">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ゼンタイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>d</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>u</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コピー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>行末まで削除</t>
+    <rPh sb="0" eb="2">
+      <t>ギョウマツ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>直前の変更を取り消し</t>
+    <rPh sb="0" eb="2">
+      <t>チョクゼン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>:s/A/B/g</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>:%s/A/B/g</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カーソル行のAをBに置換</t>
+    <rPh sb="4" eb="5">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>チカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイル全体のAをBに置換</t>
+    <rPh sb="4" eb="6">
+      <t>ゼンタイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>チカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <rPh sb="0" eb="2">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Enter symbole name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シンボル名の検索（あいまい検索、正規表現など）</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="16" eb="20">
+      <t>セイキヒョウゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cmd + R</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -586,7 +798,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -609,8 +821,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="39">
+  <cellStyleXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -650,16 +871,86 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="39">
+  <cellStyles count="105">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
@@ -679,6 +970,39 @@
     <cellStyle name="ハイパーリンク" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="35" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="103" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
@@ -699,6 +1023,39 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="36" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="104" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1027,536 +1384,688 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F34"/>
+  <dimension ref="B2:G56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="4.1640625" customWidth="1"/>
-    <col min="2" max="2" width="5" customWidth="1"/>
-    <col min="3" max="3" width="7.83203125" customWidth="1"/>
-    <col min="4" max="4" width="24" customWidth="1"/>
-    <col min="5" max="5" width="38.6640625" customWidth="1"/>
-    <col min="6" max="6" width="42" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" customWidth="1"/>
+    <col min="3" max="3" width="24" customWidth="1"/>
+    <col min="4" max="4" width="42.33203125" customWidth="1"/>
+    <col min="5" max="5" width="42" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="2:7">
+      <c r="B2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7">
+      <c r="B3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="D3" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="6"/>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="E4" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6">
-      <c r="B3" s="2">
-        <f>ROW()-2</f>
-        <v>1</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6">
-      <c r="B4" s="2">
-        <f>ROW()-2</f>
-        <v>2</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6">
-      <c r="B5" s="2">
-        <f>ROW()-2</f>
-        <v>3</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6">
-      <c r="B6" s="2">
-        <f>ROW()-2</f>
-        <v>4</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6">
-      <c r="B7" s="2">
-        <f t="shared" ref="B7:B34" si="0">ROW()-2</f>
-        <v>5</v>
-      </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="4" t="s">
-        <v>11</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6">
-      <c r="B8" s="2">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="4" t="s">
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="2" t="s">
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="2:6">
-      <c r="B9" s="2">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="4" t="s">
+    <row r="11" spans="2:7">
+      <c r="B11" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6">
-      <c r="B10" s="2">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6">
-      <c r="B11" s="2">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6">
-      <c r="B12" s="2">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="4" t="s">
-        <v>32</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6">
-      <c r="B13" s="2">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="4" t="s">
-        <v>33</v>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6">
-      <c r="B14" s="2">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="4" t="s">
-        <v>34</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="B14" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6">
-      <c r="B15" s="2">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="4" t="s">
+    </row>
+    <row r="15" spans="2:7">
+      <c r="B15" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="B16" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F15" s="2" t="s">
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="B23" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5">
+      <c r="B26" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5">
+      <c r="B27" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5">
+      <c r="B28" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5">
+      <c r="B29" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5">
+      <c r="B30" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5">
+      <c r="B31" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="16" spans="2:6">
-      <c r="B16" s="2">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6">
-      <c r="B17" s="2">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="4" t="s">
+      <c r="D31" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6">
-      <c r="B18" s="2">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6">
-      <c r="B19" s="2">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="2:6">
-      <c r="B20" s="2">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6">
-      <c r="B21" s="2">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6">
-      <c r="B22" s="2">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6">
-      <c r="B23" s="2">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6">
-      <c r="B24" s="2">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6">
-      <c r="B25" s="2">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6">
-      <c r="B26" s="4">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6">
-      <c r="B27" s="2">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6">
-      <c r="B28" s="2">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6">
-      <c r="B29" s="4">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6">
-      <c r="B30" s="2">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6">
-      <c r="B31" s="4">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6">
+    </row>
+    <row r="32" spans="2:5">
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-    </row>
-    <row r="33" spans="2:6">
-      <c r="B33" s="3">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="C33" s="3"/>
-      <c r="D33" s="5"/>
+    </row>
+    <row r="33" spans="2:5">
+      <c r="B33" s="3"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="E33" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6">
-      <c r="B34" s="3">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="C34" s="3"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3" t="s">
-        <v>39</v>
-      </c>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5">
+      <c r="B34" s="3"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5">
+      <c r="B36" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5">
+      <c r="B37" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E37" s="1"/>
+    </row>
+    <row r="38" spans="2:5">
+      <c r="B38" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C38" s="7">
+        <v>0</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E38" s="2"/>
+    </row>
+    <row r="39" spans="2:5">
+      <c r="B39" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E39" s="2"/>
+    </row>
+    <row r="40" spans="2:5">
+      <c r="B40" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E40" s="2"/>
+    </row>
+    <row r="41" spans="2:5">
+      <c r="B41" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E41" s="2"/>
+    </row>
+    <row r="42" spans="2:5">
+      <c r="B42" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E42" s="2"/>
+    </row>
+    <row r="43" spans="2:5">
+      <c r="B43" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E43" s="2"/>
+    </row>
+    <row r="44" spans="2:5">
+      <c r="B44" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E44" s="2"/>
+    </row>
+    <row r="45" spans="2:5">
+      <c r="B45" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E45" s="2"/>
+    </row>
+    <row r="46" spans="2:5">
+      <c r="B46" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E46" s="2"/>
+    </row>
+    <row r="47" spans="2:5">
+      <c r="B47" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E47" s="2"/>
+    </row>
+    <row r="48" spans="2:5">
+      <c r="B48" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E48" s="2"/>
+    </row>
+    <row r="49" spans="2:5">
+      <c r="B49" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E49" s="2"/>
+    </row>
+    <row r="50" spans="2:5">
+      <c r="B50" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E50" s="2"/>
+    </row>
+    <row r="51" spans="2:5">
+      <c r="B51" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E51" s="2"/>
+    </row>
+    <row r="52" spans="2:5">
+      <c r="B52" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E52" s="2"/>
+    </row>
+    <row r="53" spans="2:5">
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+    </row>
+    <row r="54" spans="2:5">
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+    </row>
+    <row r="55" spans="2:5">
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+    </row>
+    <row r="56" spans="2:5">
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
     </row>
   </sheetData>
+  <autoFilter ref="B3:E31">
+    <sortState ref="B4:E32">
+      <sortCondition ref="B3:B32"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="1"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B38:B52 B4:B31">
+      <formula1>"移動,検索,Coding,実行"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>

--- a/IntelliJ_shortcut.xlsx
+++ b/IntelliJ_shortcut.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="10080" yWindow="4620" windowWidth="27500" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="18300" yWindow="2300" windowWidth="20900" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$3:$E$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$3:$E$32</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="135">
   <si>
     <t>ショートカット</t>
     <phoneticPr fontId="1"/>
@@ -154,10 +154,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Show descriptions of error or warning at caret</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>interfaceのメソッド実装を生成</t>
     <rPh sb="14" eb="16">
       <t>ジッソウ</t>
@@ -736,6 +732,56 @@
   </si>
   <si>
     <t>Cmd + R</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コンパイル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モジュール作成</t>
+    <rPh sb="5" eb="7">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Compile</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Make Module</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ctrl + Shift + P</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ctrl + Shift + M</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ctrl + Enter</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>generaterを表示</t>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>◎</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>◯</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Show descriptions of error or warning at caret</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -798,7 +844,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -830,8 +876,17 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="105">
+  <cellStyleXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -937,8 +992,30 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -949,8 +1026,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="105">
+  <cellStyles count="127">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
@@ -1003,6 +1083,17 @@
     <cellStyle name="ハイパーリンク" xfId="99" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="101" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="125" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
@@ -1056,6 +1147,17 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="100" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="102" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="126" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1384,10 +1486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G56"/>
+  <dimension ref="B2:G59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -1401,27 +1503,28 @@
   <sheetData>
     <row r="2" spans="2:7">
       <c r="B2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="2:7">
       <c r="B3" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="F3" s="8"/>
       <c r="G3" s="6"/>
     </row>
     <row r="4" spans="2:7">
       <c r="B4" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>1</v>
@@ -1432,156 +1535,172 @@
       <c r="E4" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="F4" s="9" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="5" spans="2:7">
       <c r="B5" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="F5" s="9" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="6" spans="2:7">
       <c r="B6" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>5</v>
+        <v>130</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>13</v>
+        <v>131</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="9" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="2:7">
       <c r="B7" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="2:7">
       <c r="B9" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="2:7">
       <c r="B10" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="2:7">
       <c r="B11" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="2:7">
       <c r="B12" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>25</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13" spans="2:7">
       <c r="B13" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="2:7">
       <c r="B14" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>35</v>
+        <v>25</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="2:7">
       <c r="B15" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>34</v>
@@ -1589,463 +1708,506 @@
     </row>
     <row r="16" spans="2:7">
       <c r="B16" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="B23" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="B24" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="B25" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="B26" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6">
+      <c r="B27" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6">
+      <c r="B28" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6">
+      <c r="B29" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6">
+      <c r="B30" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6">
+      <c r="B31" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5">
-      <c r="B17" s="2" t="s">
+      <c r="C31" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6">
+      <c r="B32" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5">
-      <c r="B18" s="2" t="s">
+      <c r="C32" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F32" s="9"/>
+    </row>
+    <row r="33" spans="2:6">
+      <c r="B33" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6">
+      <c r="B34" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6">
+      <c r="B35" s="2"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+    </row>
+    <row r="36" spans="2:6">
+      <c r="B36" s="3"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6">
+      <c r="B37" s="3"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6">
+      <c r="B39" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6">
+      <c r="B40" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E40" s="1"/>
+    </row>
+    <row r="41" spans="2:6">
+      <c r="B41" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C41" s="7">
+        <v>0</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E41" s="2"/>
+    </row>
+    <row r="42" spans="2:6">
+      <c r="B42" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5">
-      <c r="B19" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5">
-      <c r="B20" s="2" t="s">
+      <c r="D42" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E42" s="2"/>
+    </row>
+    <row r="43" spans="2:6">
+      <c r="B43" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E43" s="2"/>
+    </row>
+    <row r="44" spans="2:6">
+      <c r="B44" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E44" s="2"/>
+    </row>
+    <row r="45" spans="2:6">
+      <c r="B45" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E45" s="2"/>
+    </row>
+    <row r="46" spans="2:6">
+      <c r="B46" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E46" s="2"/>
+    </row>
+    <row r="47" spans="2:6">
+      <c r="B47" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E47" s="2"/>
+    </row>
+    <row r="48" spans="2:6">
+      <c r="B48" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5">
-      <c r="B21" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="2:5">
-      <c r="B22" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5">
-      <c r="B23" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5">
-      <c r="B24" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5">
-      <c r="B25" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5">
-      <c r="B26" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5">
-      <c r="B27" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5">
-      <c r="B28" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5">
-      <c r="B29" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5">
-      <c r="B30" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5">
-      <c r="B31" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5">
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-    </row>
-    <row r="33" spans="2:5">
-      <c r="B33" s="3"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5">
-      <c r="B34" s="3"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5">
-      <c r="B36" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5">
-      <c r="B37" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E37" s="1"/>
-    </row>
-    <row r="38" spans="2:5">
-      <c r="B38" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C38" s="7">
-        <v>0</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E38" s="2"/>
-    </row>
-    <row r="39" spans="2:5">
-      <c r="B39" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E39" s="2"/>
-    </row>
-    <row r="40" spans="2:5">
-      <c r="B40" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E40" s="2"/>
-    </row>
-    <row r="41" spans="2:5">
-      <c r="B41" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E41" s="2"/>
-    </row>
-    <row r="42" spans="2:5">
-      <c r="B42" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E42" s="2"/>
-    </row>
-    <row r="43" spans="2:5">
-      <c r="B43" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E43" s="2"/>
-    </row>
-    <row r="44" spans="2:5">
-      <c r="B44" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D44" s="2" t="s">
+      <c r="C48" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="E44" s="2"/>
-    </row>
-    <row r="45" spans="2:5">
-      <c r="B45" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E45" s="2"/>
-    </row>
-    <row r="46" spans="2:5">
-      <c r="B46" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C46" s="2" t="s">
+      <c r="D48" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E46" s="2"/>
-    </row>
-    <row r="47" spans="2:5">
-      <c r="B47" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E47" s="2"/>
-    </row>
-    <row r="48" spans="2:5">
-      <c r="B48" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>114</v>
       </c>
       <c r="E48" s="2"/>
     </row>
     <row r="49" spans="2:5">
       <c r="B49" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="E49" s="2"/>
     </row>
     <row r="50" spans="2:5">
       <c r="B50" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C50" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D50" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>116</v>
       </c>
       <c r="E50" s="2"/>
     </row>
     <row r="51" spans="2:5">
       <c r="B51" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="E51" s="2"/>
     </row>
     <row r="52" spans="2:5">
       <c r="B52" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C52" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E52" s="2"/>
+    </row>
+    <row r="53" spans="2:5">
+      <c r="B53" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E53" s="2"/>
+    </row>
+    <row r="54" spans="2:5">
+      <c r="B54" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D54" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="D52" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E52" s="2"/>
-    </row>
-    <row r="53" spans="2:5">
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-    </row>
-    <row r="54" spans="2:5">
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
       <c r="E54" s="2"/>
     </row>
     <row r="55" spans="2:5">
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
+      <c r="B55" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="E55" s="2"/>
     </row>
     <row r="56" spans="2:5">
@@ -2054,15 +2216,33 @@
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
     </row>
+    <row r="57" spans="2:5">
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+    </row>
+    <row r="58" spans="2:5">
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+    </row>
+    <row r="59" spans="2:5">
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+    </row>
   </sheetData>
-  <autoFilter ref="B3:E31">
+  <autoFilter ref="B3:E32">
     <sortState ref="B4:E32">
       <sortCondition ref="B3:B32"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B38:B52 B4:B31">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B41:B55 B4:B35">
       <formula1>"移動,検索,Coding,実行"</formula1>
     </dataValidation>
   </dataValidations>

--- a/IntelliJ_shortcut.xlsx
+++ b/IntelliJ_shortcut.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="18300" yWindow="2300" windowWidth="20900" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="-23740" yWindow="720" windowWidth="23780" windowHeight="20240" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$3:$E$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$3:$E$40</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="155">
   <si>
     <t>ショートカット</t>
     <phoneticPr fontId="1"/>
@@ -388,10 +388,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Cmd + E</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>最近開いたファイル</t>
     <rPh sb="0" eb="2">
       <t>サイキン</t>
@@ -433,10 +429,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Ctrl + Shift + Cmd + N</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>テストコードに移動</t>
     <rPh sb="7" eb="9">
       <t>イドウ</t>
@@ -731,10 +723,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Cmd + R</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>コンパイル</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -782,6 +770,167 @@
   </si>
   <si>
     <t>Show descriptions of error or warning at caret</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>♢ + J</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スニペット選択（Live Template）</t>
+    <rPh sb="5" eb="7">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Insert Live Template</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>優先度</t>
+    <rPh sb="0" eb="3">
+      <t>ユウセンド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>♢ + Shift + V</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コピー履歴から貼り付け</t>
+    <rPh sb="3" eb="5">
+      <t>リレキ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ハ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Past from History</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選択行をそのまま上下移動</t>
+    <rPh sb="0" eb="2">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジョウゲ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Alt + Shift + ↑/↓</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロジェクトツールウィンドの表示・非表示</t>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>ヒヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>♢ + 1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ctrl + Shift + ♢ + N</t>
+  </si>
+  <si>
+    <t>♢ + R</t>
+  </si>
+  <si>
+    <t>♢ + E</t>
+  </si>
+  <si>
+    <t>なんでも検索</t>
+    <rPh sb="4" eb="6">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Shift 2回連打</t>
+    <rPh sb="7" eb="8">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>レンダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>♢ + W / ♢ + Shift + W</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選択状態ブロックの拡大/縮小</t>
+    <rPh sb="0" eb="2">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カクダイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シュクショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>行の削除</t>
+    <rPh sb="0" eb="1">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>♢ + Y</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Coding</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>♢ + B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>定義に移動する（深く入る）</t>
+    <rPh sb="0" eb="2">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>フカ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ハイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -844,7 +993,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -867,26 +1016,8 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="127">
+  <cellStyleXfs count="173">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1014,23 +1145,68 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="127">
+  <cellStyles count="173">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
@@ -1094,6 +1270,29 @@
     <cellStyle name="ハイパーリンク" xfId="121" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="123" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="171" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
@@ -1158,6 +1357,29 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="122" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="124" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="172" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1486,10 +1708,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G59"/>
+  <dimension ref="B2:G67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -1503,28 +1725,30 @@
   <sheetData>
     <row r="2" spans="2:7">
       <c r="B2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="2:7">
       <c r="B3" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="6"/>
+      <c r="F3" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G3" s="7"/>
     </row>
     <row r="4" spans="2:7">
       <c r="B4" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>1</v>
@@ -1535,13 +1759,13 @@
       <c r="E4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="9" t="s">
-        <v>132</v>
+      <c r="F4" s="8" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="2:7">
       <c r="B5" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>3</v>
@@ -1552,28 +1776,28 @@
       <c r="E5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="9" t="s">
-        <v>132</v>
+      <c r="F5" s="8" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="2:7">
       <c r="B6" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E6" s="2"/>
-      <c r="F6" s="9" t="s">
-        <v>132</v>
+      <c r="F6" s="8" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="2:7">
       <c r="B7" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>5</v>
@@ -1584,13 +1808,13 @@
       <c r="E7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="9" t="s">
-        <v>132</v>
+      <c r="F7" s="8" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>7</v>
@@ -1601,13 +1825,13 @@
       <c r="E8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="9" t="s">
-        <v>133</v>
+      <c r="F8" s="8" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="2:7">
       <c r="B9" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>9</v>
@@ -1618,10 +1842,11 @@
       <c r="E9" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="F9" s="2"/>
     </row>
     <row r="10" spans="2:7">
       <c r="B10" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>16</v>
@@ -1632,10 +1857,11 @@
       <c r="E10" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="F10" s="2"/>
     </row>
     <row r="11" spans="2:7">
       <c r="B11" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>26</v>
@@ -1646,10 +1872,11 @@
       <c r="E11" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="F11" s="2"/>
     </row>
     <row r="12" spans="2:7">
       <c r="B12" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>27</v>
@@ -1658,12 +1885,13 @@
         <v>21</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>134</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="F12" s="2"/>
     </row>
     <row r="13" spans="2:7">
       <c r="B13" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>28</v>
@@ -1674,10 +1902,11 @@
       <c r="E13" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="F13" s="2"/>
     </row>
     <row r="14" spans="2:7">
       <c r="B14" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>29</v>
@@ -1688,13 +1917,13 @@
       <c r="E14" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="9" t="s">
-        <v>133</v>
+      <c r="F14" s="8" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="15" spans="2:7">
       <c r="B15" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>30</v>
@@ -1705,10 +1934,11 @@
       <c r="E15" s="2" t="s">
         <v>34</v>
       </c>
+      <c r="F15" s="2"/>
     </row>
     <row r="16" spans="2:7">
       <c r="B16" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>31</v>
@@ -1719,10 +1949,13 @@
       <c r="E16" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="F16" s="8" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="17" spans="2:6">
       <c r="B17" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>40</v>
@@ -1733,10 +1966,11 @@
       <c r="E17" s="2" t="s">
         <v>42</v>
       </c>
+      <c r="F17" s="2"/>
     </row>
     <row r="18" spans="2:6">
       <c r="B18" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>66</v>
@@ -1747,502 +1981,641 @@
       <c r="E18" s="2" t="s">
         <v>64</v>
       </c>
+      <c r="F18" s="2"/>
     </row>
     <row r="19" spans="2:6">
       <c r="B19" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>50</v>
+        <v>132</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>52</v>
+        <v>133</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>51</v>
+        <v>134</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="20" spans="2:6">
       <c r="B20" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>133</v>
+        <v>136</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="21" spans="2:6">
       <c r="B21" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>47</v>
+        <v>140</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>49</v>
+        <v>139</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="9" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="22" spans="2:6">
       <c r="B22" s="2" t="s">
-        <v>85</v>
+        <v>152</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>80</v>
+        <v>148</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>81</v>
+        <v>149</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="9" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="2:6">
       <c r="B23" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>121</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E23" s="2"/>
       <c r="F23" s="9" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="24" spans="2:6">
       <c r="B24" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>123</v>
+        <v>50</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>83</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="F24" s="2"/>
     </row>
     <row r="25" spans="2:6">
       <c r="B25" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>54</v>
+        <v>76</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="26" spans="2:6">
       <c r="B26" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>58</v>
+        <v>153</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="E26" s="4"/>
+      <c r="F26" s="8" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="27" spans="2:6">
       <c r="B27" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>60</v>
+        <v>142</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="E27" s="4"/>
+      <c r="F27" s="8" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="28" spans="2:6">
       <c r="B28" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>69</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F28" s="2"/>
     </row>
     <row r="29" spans="2:6">
       <c r="B29" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="F29" s="10" t="s">
-        <v>132</v>
+        <v>78</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E29" s="2"/>
+      <c r="F29" s="8" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="30" spans="2:6">
       <c r="B30" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>75</v>
+        <v>147</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E30" s="2"/>
+      <c r="F30" s="8" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="31" spans="2:6">
       <c r="B31" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>38</v>
+        <v>143</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>120</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>39</v>
+        <v>119</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="32" spans="2:6">
       <c r="B32" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>44</v>
+        <v>144</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F32" s="9"/>
+        <v>81</v>
+      </c>
+      <c r="F32" s="2"/>
     </row>
     <row r="33" spans="2:6">
       <c r="B33" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>128</v>
+        <v>53</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>124</v>
+        <v>55</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="F33" s="9" t="s">
-        <v>132</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="F33" s="2"/>
     </row>
     <row r="34" spans="2:6">
       <c r="B34" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C34" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F34" s="2"/>
+    </row>
+    <row r="35" spans="2:6">
+      <c r="B35" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F35" s="2"/>
+    </row>
+    <row r="36" spans="2:6">
+      <c r="B36" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F36" s="2"/>
+    </row>
+    <row r="37" spans="2:6">
+      <c r="B37" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F37" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="D34" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="F34" s="9" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6">
-      <c r="B35" s="2"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-    </row>
-    <row r="36" spans="2:6">
-      <c r="B36" s="3"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6">
-      <c r="B37" s="3"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3" t="s">
-        <v>36</v>
-      </c>
+    </row>
+    <row r="38" spans="2:6">
+      <c r="B38" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" s="2"/>
     </row>
     <row r="39" spans="2:6">
-      <c r="B39" t="s">
-        <v>89</v>
+      <c r="B39" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="40" spans="2:6">
-      <c r="B40" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="E40" s="1"/>
+      <c r="B40" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F40" s="8"/>
     </row>
     <row r="41" spans="2:6">
       <c r="B41" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C41" s="7">
-        <v>0</v>
+        <v>85</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>125</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E41" s="2"/>
+        <v>121</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="42" spans="2:6">
       <c r="B42" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E42" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="43" spans="2:6">
-      <c r="B43" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="2"/>
     </row>
     <row r="44" spans="2:6">
-      <c r="B44" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E44" s="2"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F44" s="2"/>
     </row>
     <row r="45" spans="2:6">
-      <c r="B45" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E45" s="2"/>
-    </row>
-    <row r="46" spans="2:6">
-      <c r="B46" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E46" s="2"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F45" s="2"/>
     </row>
     <row r="47" spans="2:6">
-      <c r="B47" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E47" s="2"/>
+      <c r="B47" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="48" spans="2:6">
-      <c r="B48" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E48" s="2"/>
+      <c r="B48" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E48" s="1"/>
     </row>
     <row r="49" spans="2:5">
       <c r="B49" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>105</v>
+        <v>88</v>
+      </c>
+      <c r="C49" s="6">
+        <v>0</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="E49" s="2"/>
     </row>
     <row r="50" spans="2:5">
       <c r="B50" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="E50" s="2"/>
     </row>
     <row r="51" spans="2:5">
       <c r="B51" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="E51" s="2"/>
     </row>
     <row r="52" spans="2:5">
       <c r="B52" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="E52" s="2"/>
     </row>
     <row r="53" spans="2:5">
       <c r="B53" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="E53" s="2"/>
     </row>
     <row r="54" spans="2:5">
       <c r="B54" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="E54" s="2"/>
     </row>
     <row r="55" spans="2:5">
       <c r="B55" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C55" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E55" s="2"/>
+    </row>
+    <row r="56" spans="2:5">
+      <c r="B56" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E56" s="2"/>
+    </row>
+    <row r="57" spans="2:5">
+      <c r="B57" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E57" s="2"/>
+    </row>
+    <row r="58" spans="2:5">
+      <c r="B58" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E58" s="2"/>
+    </row>
+    <row r="59" spans="2:5">
+      <c r="B59" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E59" s="2"/>
+    </row>
+    <row r="60" spans="2:5">
+      <c r="B60" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E60" s="2"/>
+    </row>
+    <row r="61" spans="2:5">
+      <c r="B61" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E61" s="2"/>
+    </row>
+    <row r="62" spans="2:5">
+      <c r="B62" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E62" s="2"/>
+    </row>
+    <row r="63" spans="2:5">
+      <c r="B63" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D63" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="D55" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E55" s="2"/>
-    </row>
-    <row r="56" spans="2:5">
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
-    </row>
-    <row r="57" spans="2:5">
-      <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
-    </row>
-    <row r="58" spans="2:5">
-      <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
-    </row>
-    <row r="59" spans="2:5">
-      <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
+      <c r="E63" s="2"/>
+    </row>
+    <row r="64" spans="2:5">
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+    </row>
+    <row r="65" spans="2:5">
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+    </row>
+    <row r="66" spans="2:5">
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+    </row>
+    <row r="67" spans="2:5">
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="B3:E32">
+  <autoFilter ref="B3:E40">
     <sortState ref="B4:E32">
       <sortCondition ref="B3:B32"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B41:B55 B4:B35">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B49:B63 B4:B43">
       <formula1>"移動,検索,Coding,実行"</formula1>
     </dataValidation>
   </dataValidations>

--- a/IntelliJ_shortcut.xlsx
+++ b/IntelliJ_shortcut.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-23740" yWindow="720" windowWidth="23780" windowHeight="20240" tabRatio="500"/>
+    <workbookView xWindow="13620" yWindow="1340" windowWidth="15620" windowHeight="21080" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$3:$E$40</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$3:$F$45</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="163">
   <si>
     <t>ショートカット</t>
     <phoneticPr fontId="1"/>
@@ -216,10 +216,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Select successively increasing code blocks</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Ctrl + Alt + R</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -364,14 +360,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Next/previous highlighted error]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>コード中の次の/前のエラー箇所に移動</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>クラス名やメソッド名、変数名などを変更</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -429,18 +417,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>テストコードに移動</t>
-    <rPh sb="7" eb="9">
-      <t>イドウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Ctrl + T</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Test</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -930,6 +907,91 @@
     </rPh>
     <rPh sb="10" eb="11">
       <t>ハイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>◯</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テスト実行</t>
+    <rPh sb="3" eb="5">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ctrl + Alt + O</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Run context configuration</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Gemerator</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>switcherから行くしかない？</t>
+    <rPh sb="10" eb="11">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テストコードからソースコードに移動</t>
+    <rPh sb="15" eb="17">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Navigate | Test Subject</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選択すればテスト実行も可能</t>
+    <rPh sb="0" eb="2">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ctrl + Tab</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>直前のタブに移動（戻る）</t>
+    <rPh sb="0" eb="2">
+      <t>チョクゼン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>♢ + Alt + ←</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>定義に戻る</t>
+    <rPh sb="0" eb="2">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>モド</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -973,7 +1035,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -988,12 +1050,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1016,8 +1084,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="173">
+  <cellStyleXfs count="191">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1191,22 +1270,46 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="173">
+  <cellStyles count="191">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
@@ -1293,6 +1396,15 @@
     <cellStyle name="ハイパーリンク" xfId="167" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="169" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="189" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
@@ -1380,6 +1492,15 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="168" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="170" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="190" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1710,8 +1831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -1725,32 +1846,32 @@
   <sheetData>
     <row r="2" spans="2:7">
       <c r="B2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="2:7">
       <c r="B3" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="G3" s="7"/>
+        <v>130</v>
+      </c>
+      <c r="G3" s="5"/>
     </row>
     <row r="4" spans="2:7">
       <c r="B4" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C4" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -1759,47 +1880,49 @@
       <c r="E4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="8" t="s">
-        <v>129</v>
+      <c r="F4" s="6" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="2:7">
       <c r="B5" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C5" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="8" t="s">
-        <v>129</v>
+      <c r="F5" s="6" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="2:7">
       <c r="B6" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>127</v>
+        <v>79</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>122</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="8" t="s">
-        <v>129</v>
+        <v>123</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="2:7">
       <c r="B7" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C7" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -1808,15 +1931,15 @@
       <c r="E7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="8" t="s">
-        <v>129</v>
+      <c r="F7" s="6" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C8" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -1825,15 +1948,15 @@
       <c r="E8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="8" t="s">
-        <v>130</v>
+      <c r="F8" s="6" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="2:7">
       <c r="B9" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C9" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
@@ -1846,9 +1969,9 @@
     </row>
     <row r="10" spans="2:7">
       <c r="B10" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C10" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -1861,9 +1984,9 @@
     </row>
     <row r="11" spans="2:7">
       <c r="B11" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C11" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -1876,24 +1999,24 @@
     </row>
     <row r="12" spans="2:7">
       <c r="B12" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C12" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F12" s="2"/>
     </row>
     <row r="13" spans="2:7">
       <c r="B13" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C13" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>28</v>
       </c>
       <c r="D13" s="2" t="s">
@@ -1906,9 +2029,9 @@
     </row>
     <row r="14" spans="2:7">
       <c r="B14" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C14" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D14" s="2" t="s">
@@ -1917,15 +2040,15 @@
       <c r="E14" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="8" t="s">
-        <v>130</v>
+      <c r="F14" s="6" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="2:7">
       <c r="B15" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C15" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -1938,9 +2061,9 @@
     </row>
     <row r="16" spans="2:7">
       <c r="B16" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C16" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>31</v>
       </c>
       <c r="D16" s="2" t="s">
@@ -1949,637 +2072,670 @@
       <c r="E16" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F16" s="8" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6">
+      <c r="F16" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7">
       <c r="B17" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C17" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="E17" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="2:6">
+      <c r="F17" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7">
       <c r="B18" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C18" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7">
+      <c r="B24" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" s="13" customFormat="1">
+      <c r="B25" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" s="13" customFormat="1">
+      <c r="B26" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="E26" s="11"/>
+      <c r="F26" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="G26" s="15"/>
+    </row>
+    <row r="27" spans="2:7">
+      <c r="B27" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="E27" s="9"/>
+      <c r="F27" s="8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7">
+      <c r="B28" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="E28" s="9"/>
+      <c r="F28" s="8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7">
+      <c r="B29" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="E29" s="9"/>
+      <c r="F29" s="8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7">
+      <c r="B30" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="2:7">
+      <c r="B31" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E31" s="2"/>
+      <c r="F31" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7">
+      <c r="B32" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E32" s="2"/>
+      <c r="F32" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7">
+      <c r="B33" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7">
+      <c r="B34" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F34" s="2"/>
+    </row>
+    <row r="35" spans="2:7">
+      <c r="B35" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7">
+      <c r="B36" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F36" s="2"/>
+    </row>
+    <row r="37" spans="2:7">
+      <c r="B37" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F37" s="2"/>
+    </row>
+    <row r="38" spans="2:7">
+      <c r="B38" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F38" s="2"/>
+    </row>
+    <row r="39" spans="2:7">
+      <c r="B39" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C39" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="2:6">
-      <c r="B19" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6">
-      <c r="B20" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6">
-      <c r="B21" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="9" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6">
-      <c r="B22" s="2" t="s">
+      <c r="D39" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7">
+      <c r="B40" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F40" s="2"/>
+    </row>
+    <row r="41" spans="2:7">
+      <c r="B41" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G41" s="14" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7">
+      <c r="B42" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C42" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="9" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6">
-      <c r="B23" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C23" s="4" t="s">
+      <c r="D42" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="9" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6">
-      <c r="B24" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="2:6">
-      <c r="B25" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E25" s="4" t="s">
+      <c r="E42" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7">
+      <c r="B43" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F43" s="6"/>
+    </row>
+    <row r="44" spans="2:7">
+      <c r="B44" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7">
+      <c r="B45" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7">
+      <c r="B47" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7">
+      <c r="B48" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6">
-      <c r="B26" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="E26" s="4"/>
-      <c r="F26" s="8" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6">
-      <c r="B27" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="E27" s="4"/>
-      <c r="F27" s="8" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6">
-      <c r="B28" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F28" s="2"/>
-    </row>
-    <row r="29" spans="2:6">
-      <c r="B29" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E29" s="2"/>
-      <c r="F29" s="8" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6">
-      <c r="B30" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E30" s="2"/>
-      <c r="F30" s="8" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6">
-      <c r="B31" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F31" s="8" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6">
-      <c r="B32" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F32" s="2"/>
-    </row>
-    <row r="33" spans="2:6">
-      <c r="B33" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F33" s="2"/>
-    </row>
-    <row r="34" spans="2:6">
-      <c r="B34" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F34" s="2"/>
-    </row>
-    <row r="35" spans="2:6">
-      <c r="B35" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F35" s="2"/>
-    </row>
-    <row r="36" spans="2:6">
-      <c r="B36" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="F36" s="2"/>
-    </row>
-    <row r="37" spans="2:6">
-      <c r="B37" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="F37" s="9" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6">
-      <c r="B38" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F38" s="2"/>
-    </row>
-    <row r="39" spans="2:6">
-      <c r="B39" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F39" s="9" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6">
-      <c r="B40" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F40" s="8"/>
-    </row>
-    <row r="41" spans="2:6">
-      <c r="B41" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F41" s="8" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="42" spans="2:6">
-      <c r="B42" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="F42" s="8" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="43" spans="2:6">
-      <c r="B43" s="2"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="2"/>
-    </row>
-    <row r="44" spans="2:6">
-      <c r="B44" s="3"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F44" s="2"/>
-    </row>
-    <row r="45" spans="2:6">
-      <c r="B45" s="3"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F45" s="2"/>
-    </row>
-    <row r="47" spans="2:6">
-      <c r="B47" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="48" spans="2:6">
-      <c r="B48" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E48" s="1"/>
     </row>
     <row r="49" spans="2:5">
       <c r="B49" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C49" s="6">
+        <v>83</v>
+      </c>
+      <c r="C49" s="4">
         <v>0</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E49" s="2"/>
     </row>
     <row r="50" spans="2:5">
       <c r="B50" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E50" s="2"/>
     </row>
     <row r="51" spans="2:5">
       <c r="B51" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E51" s="2"/>
     </row>
     <row r="52" spans="2:5">
       <c r="B52" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C52" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="D52" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E52" s="2"/>
     </row>
     <row r="53" spans="2:5">
       <c r="B53" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C53" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D53" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>97</v>
       </c>
       <c r="E53" s="2"/>
     </row>
     <row r="54" spans="2:5">
       <c r="B54" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E54" s="2"/>
     </row>
     <row r="55" spans="2:5">
       <c r="B55" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E55" s="2"/>
     </row>
     <row r="56" spans="2:5">
       <c r="B56" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E56" s="2"/>
     </row>
     <row r="57" spans="2:5">
       <c r="B57" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E57" s="2"/>
     </row>
     <row r="58" spans="2:5">
       <c r="B58" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E58" s="2"/>
     </row>
     <row r="59" spans="2:5">
       <c r="B59" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E59" s="2"/>
     </row>
     <row r="60" spans="2:5">
       <c r="B60" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E60" s="2"/>
     </row>
     <row r="61" spans="2:5">
       <c r="B61" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E61" s="2"/>
     </row>
     <row r="62" spans="2:5">
       <c r="B62" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E62" s="2"/>
     </row>
     <row r="63" spans="2:5">
       <c r="B63" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E63" s="2"/>
     </row>
@@ -2608,14 +2764,10 @@
       <c r="E67" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="B3:E40">
-    <sortState ref="B4:E32">
-      <sortCondition ref="B3:B32"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="B3:F45"/>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B49:B63 B4:B43">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B49:B63 B4:B45">
       <formula1>"移動,検索,Coding,実行"</formula1>
     </dataValidation>
   </dataValidations>
